--- a/Healthify Excel Sheet.xlsx
+++ b/Healthify Excel Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7E3A9B-9CA1-4B5F-928B-68ACFC857504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68188E1F-2A09-4ACA-8409-A707B55706E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>Target Numerical Goal</t>
   </si>
   <si>
-    <t>williamjade</t>
-  </si>
-  <si>
     <t>jadewilliam@gmail.com</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>william</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -743,7 +743,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -763,18 +763,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="9">
         <v>43938</v>
@@ -783,18 +783,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="3">
         <v>43956</v>
@@ -803,18 +803,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="9">
         <v>43974</v>
@@ -823,18 +823,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="3">
         <v>43992</v>
@@ -843,18 +843,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="9">
         <v>44010</v>
@@ -863,18 +863,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="3">
         <v>44028</v>
@@ -883,18 +883,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D10" s="9">
         <v>44046</v>
@@ -903,18 +903,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="9">
         <v>44064</v>
@@ -923,7 +923,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -971,16 +971,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>14</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3">
         <v>43975</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3">
         <v>43975</v>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>43975</v>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3">
         <v>43975</v>
@@ -1319,10 +1319,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>43975</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3">
         <v>43975</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3">
         <v>43975</v>
@@ -1400,13 +1400,13 @@
         <v>44066</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1414,13 +1414,13 @@
         <v>44066</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1431,10 +1431,10 @@
         <v>44064</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1445,7 +1445,7 @@
         <v>44044</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3">
         <v>44058</v>
@@ -1459,10 +1459,10 @@
         <v>44065</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1470,13 +1470,13 @@
         <v>44067</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1487,7 +1487,7 @@
         <v>44044</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3">
         <v>44063</v>
@@ -1501,10 +1501,10 @@
         <v>44048</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1515,10 +1515,10 @@
         <v>44063</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1526,13 +1526,13 @@
         <v>44063</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3">
         <v>44064</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1568,65 +1568,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2">
         <v>300000</v>
@@ -1634,32 +1634,32 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <v>600000</v>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3">
         <v>44044</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3">
         <v>44044</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>44044</v>

--- a/Healthify Excel Sheet.xlsx
+++ b/Healthify Excel Sheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738C55F5-C804-4604-A30A-57D91B0CFDBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6F98D4-E540-44EA-A8B5-567414726C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Daily Level" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -805,9 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62DAEFD-425C-43CE-B17A-8805201AA19F}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Healthify Excel Sheet.xlsx
+++ b/Healthify Excel Sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6F98D4-E540-44EA-A8B5-567414726C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F81BCA7-DAD3-4380-A383-8EFE62C46B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Level" sheetId="8" r:id="rId2"/>
+    <sheet name="Group" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Username</t>
   </si>
@@ -81,6 +82,15 @@
     <t>Total Calories</t>
   </si>
   <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Last Edited</t>
+  </si>
+  <si>
     <t>jadewilliam@gmail.com</t>
   </si>
   <si>
@@ -163,6 +173,27 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Boys Group(14-18 Years)</t>
+  </si>
+  <si>
+    <t>Girls Group(14-18 Years)</t>
+  </si>
+  <si>
+    <t>Girls Group(19-30 Years)</t>
+  </si>
+  <si>
+    <t>Boys Group(19-30 Years)</t>
+  </si>
+  <si>
+    <t>Adult Group(30-50 Years)</t>
+  </si>
+  <si>
+    <t>Kids Group(6-13 Years)</t>
+  </si>
+  <si>
+    <t>Old Age Group(51-70)</t>
   </si>
   <si>
     <t>Admin</t>
@@ -580,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -600,7 +631,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -620,18 +651,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="8">
         <v>43938</v>
@@ -640,18 +671,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>43956</v>
@@ -660,18 +691,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8">
         <v>43974</v>
@@ -680,18 +711,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>43992</v>
@@ -700,18 +731,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" s="8">
         <v>44010</v>
@@ -720,18 +751,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>44028</v>
@@ -740,18 +771,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8">
         <v>44046</v>
@@ -760,18 +791,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" s="8">
         <v>44064</v>
@@ -780,7 +811,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62DAEFD-425C-43CE-B17A-8805201AA19F}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -821,16 +852,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
@@ -1074,6 +1105,137 @@
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>1131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61EAD4F-AC3B-46D2-9BF5-E419FC71F0FB}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43975</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44067.156643518516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43975</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44067.416666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43975</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44067.4375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43975</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44067.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43975</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44066.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43975</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44066.833333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43975</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44067.395833333336</v>
       </c>
     </row>
   </sheetData>

--- a/Healthify Excel Sheet.xlsx
+++ b/Healthify Excel Sheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F81BCA7-DAD3-4380-A383-8EFE62C46B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C21E43-71E3-425B-B844-1399409D46B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Level" sheetId="8" r:id="rId2"/>
     <sheet name="Group" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -235,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,12 +246,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,9 +287,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -836,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62DAEFD-425C-43CE-B17A-8805201AA19F}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -845,7 +837,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1116,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61EAD4F-AC3B-46D2-9BF5-E419FC71F0FB}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1241,4 +1233,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE33CAE4-85B9-48DD-9AA9-70CFFA7B2668}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Healthify Excel Sheet.xlsx
+++ b/Healthify Excel Sheet.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C21E43-71E3-425B-B844-1399409D46B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF5CF54-7CE3-4BEB-ADC7-104EE9C39158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Level" sheetId="8" r:id="rId2"/>
     <sheet name="Group" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId4"/>
+    <sheet name="Group Member" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>Username</t>
   </si>
@@ -92,6 +92,18 @@
     <t>Last Edited</t>
   </si>
   <si>
+    <t>Date Invited</t>
+  </si>
+  <si>
+    <t>Date Accepted Invite</t>
+  </si>
+  <si>
+    <t>Date Rejected Invite</t>
+  </si>
+  <si>
+    <t>Date Left Group</t>
+  </si>
+  <si>
     <t>jadewilliam@gmail.com</t>
   </si>
   <si>
@@ -162,6 +174,18 @@
   </si>
   <si>
     <t>Hydration(liters)</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Accepted</t>
   </si>
   <si>
     <t>Fruit Servings(Cal)</t>
@@ -263,8 +287,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,232 +603,232 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43902</v>
+      </c>
+      <c r="E2" s="5">
+        <v>44055.555555555555</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43920</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44066.152777777781</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9">
+        <v>43938</v>
+      </c>
+      <c r="E4" s="5">
+        <v>44039.805555555555</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43956</v>
+      </c>
+      <c r="E5" s="5">
+        <v>44055.555555555555</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8">
-        <v>43902</v>
-      </c>
-      <c r="E2" s="4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43974</v>
+      </c>
+      <c r="E6" s="5">
+        <v>44066.152777777781</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43992</v>
+      </c>
+      <c r="E7" s="5">
+        <v>44039.805555555555</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9">
+        <v>44010</v>
+      </c>
+      <c r="E8" s="5">
         <v>44055.555555555555</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44028</v>
+      </c>
+      <c r="E9" s="5">
+        <v>44066.152777777781</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9">
+        <v>44046</v>
+      </c>
+      <c r="E10" s="5">
+        <v>44039.805555555555</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43920</v>
-      </c>
-      <c r="E3" s="4">
-        <v>44066.152777777781</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8">
-        <v>43938</v>
-      </c>
-      <c r="E4" s="4">
-        <v>44039.805555555555</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43956</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D11" s="9">
+        <v>44064</v>
+      </c>
+      <c r="E11" s="5">
         <v>44055.555555555555</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8">
-        <v>43974</v>
-      </c>
-      <c r="E6" s="4">
-        <v>44066.152777777781</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43992</v>
-      </c>
-      <c r="E7" s="4">
-        <v>44039.805555555555</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8">
-        <v>44010</v>
-      </c>
-      <c r="E8" s="4">
-        <v>44055.555555555555</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44028</v>
-      </c>
-      <c r="E9" s="4">
-        <v>44066.152777777781</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8">
-        <v>44046</v>
-      </c>
-      <c r="E10" s="4">
-        <v>44039.805555555555</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="8">
-        <v>44064</v>
-      </c>
-      <c r="E11" s="4">
-        <v>44055.555555555555</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -828,273 +853,278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62DAEFD-425C-43CE-B17A-8805201AA19F}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>43902</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>3452</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>2.5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>350</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>218</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <f>+E2+F2</f>
         <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>43920</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>7828</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>320</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>250</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G11" si="0">+E3+F3</f>
         <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>43938</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>6000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>420</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>290</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>43956</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>7500</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>2.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>360</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>220</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>43974</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>6500</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>290</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>350</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>43992</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>6472</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>2.8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>6.5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>209</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>420</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>44010</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>7200</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>2.6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>467</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>299</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>44028</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>6738</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>527</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>201</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>44046</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>6389</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>7.5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>268</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>479</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>44064</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>7863</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>638</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>493</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>1131</v>
       </c>
@@ -1119,114 +1149,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3">
         <v>43975</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>44067.156643518516</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3">
         <v>43975</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>44067.416666666664</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3">
         <v>43975</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>44067.4375</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3">
         <v>43975</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>44067.375</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
         <v>43975</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>44066.75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3">
         <v>43975</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>44066.833333333336</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3">
         <v>43975</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>44067.395833333336</v>
       </c>
     </row>
@@ -1237,12 +1267,175 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE33CAE4-85B9-48DD-9AA9-70CFFA7B2668}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44066</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44066</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44063</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44064</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44044</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44044</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44064</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44065</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44067</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44043</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44044</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44047</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44048</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44058</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44063</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>44063</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44064</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Healthify Excel Sheet.xlsx
+++ b/Healthify Excel Sheet.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF5CF54-7CE3-4BEB-ADC7-104EE9C39158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B68CC7B-11A5-4132-8D42-314F6B1FB884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Level" sheetId="8" r:id="rId2"/>
     <sheet name="Group" sheetId="9" r:id="rId3"/>
     <sheet name="Group Member" sheetId="10" r:id="rId4"/>
+    <sheet name="Target" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Username</t>
   </si>
@@ -104,6 +105,15 @@
     <t>Date Left Group</t>
   </si>
   <si>
+    <t>Target Name</t>
+  </si>
+  <si>
+    <t>Target Description</t>
+  </si>
+  <si>
+    <t>Target Numerical Goal</t>
+  </si>
+  <si>
     <t>jadewilliam@gmail.com</t>
   </si>
   <si>
@@ -198,6 +208,75 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>3k Run</t>
+  </si>
+  <si>
+    <t>5k Run</t>
+  </si>
+  <si>
+    <t>10k Run</t>
+  </si>
+  <si>
+    <t>30 days diet challenge</t>
+  </si>
+  <si>
+    <t>30 days workout challenge</t>
+  </si>
+  <si>
+    <t>30 days step challenge</t>
+  </si>
+  <si>
+    <t>60 days diet challenge</t>
+  </si>
+  <si>
+    <t>60 days workout challenge</t>
+  </si>
+  <si>
+    <t>60 days step challenge</t>
+  </si>
+  <si>
+    <t>3(km)</t>
+  </si>
+  <si>
+    <t>5(km)</t>
+  </si>
+  <si>
+    <t>10(km)</t>
+  </si>
+  <si>
+    <t>30(days)</t>
+  </si>
+  <si>
+    <t>60(days)</t>
+  </si>
+  <si>
+    <t>Takeup this challenge to complete running for 3 kilometers</t>
+  </si>
+  <si>
+    <t>Takeup this challenge to complete running for 5 kilometers</t>
+  </si>
+  <si>
+    <t>Takeup this challenge to complete running for 10 kilometers</t>
+  </si>
+  <si>
+    <t>Takeup this challenge to complete diet for 30 days</t>
+  </si>
+  <si>
+    <t>Takeup this challenge to complete 3 lakh steps in 30 days</t>
+  </si>
+  <si>
+    <t>Takeup this challenge to complete diet in 60 days</t>
+  </si>
+  <si>
+    <t>Takeup this workout challenge to complete in 60 days</t>
+  </si>
+  <si>
+    <t>Takeup this workout challenge to complete in 30 days</t>
+  </si>
+  <si>
+    <t>Takeup this challenge to complete 6 lakh steps in 60 days</t>
   </si>
   <si>
     <t>Boys Group(14-18 Years)</t>
@@ -628,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -648,7 +727,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -668,18 +747,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9">
         <v>43938</v>
@@ -688,18 +767,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3">
         <v>43956</v>
@@ -708,18 +787,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="9">
         <v>43974</v>
@@ -728,18 +807,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3">
         <v>43992</v>
@@ -748,18 +827,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="9">
         <v>44010</v>
@@ -768,18 +847,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3">
         <v>44028</v>
@@ -788,18 +867,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" s="9">
         <v>44046</v>
@@ -808,18 +887,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" s="9">
         <v>44064</v>
@@ -828,7 +907,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -874,16 +953,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>14</v>
@@ -1164,10 +1243,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3">
         <v>43975</v>
@@ -1178,10 +1257,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3">
         <v>43975</v>
@@ -1192,10 +1271,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3">
         <v>43975</v>
@@ -1206,10 +1285,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
         <v>43975</v>
@@ -1220,10 +1299,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3">
         <v>43975</v>
@@ -1234,10 +1313,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3">
         <v>43975</v>
@@ -1248,10 +1327,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3">
         <v>43975</v>
@@ -1269,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE33CAE4-85B9-48DD-9AA9-70CFFA7B2668}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1300,13 +1379,13 @@
         <v>44066</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1314,13 +1393,13 @@
         <v>44066</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1331,10 +1410,10 @@
         <v>44064</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1345,7 +1424,7 @@
         <v>44044</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3">
         <v>44058</v>
@@ -1359,10 +1438,10 @@
         <v>44065</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1370,13 +1449,13 @@
         <v>44067</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1387,7 +1466,7 @@
         <v>44044</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3">
         <v>44063</v>
@@ -1401,10 +1480,10 @@
         <v>44048</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1415,10 +1494,10 @@
         <v>44063</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1426,13 +1505,141 @@
         <v>44063</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3">
         <v>44064</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF4A9E4-46E6-4127-A54A-C6E3D069C421}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2">
+        <v>600000</v>
       </c>
     </row>
   </sheetData>

--- a/Healthify Excel Sheet.xlsx
+++ b/Healthify Excel Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B68CC7B-11A5-4132-8D42-314F6B1FB884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC2BED8-C3D8-48A5-B818-D42F746D0D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Group" sheetId="9" r:id="rId3"/>
     <sheet name="Group Member" sheetId="10" r:id="rId4"/>
     <sheet name="Target" sheetId="11" r:id="rId5"/>
+    <sheet name="Challenge" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>Username</t>
   </si>
@@ -105,6 +106,12 @@
     <t>Date Left Group</t>
   </si>
   <si>
+    <t>Challenge Name</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
     <t>Target Name</t>
   </si>
   <si>
@@ -202,6 +209,15 @@
   </si>
   <si>
     <t>Vegetable Servings(Cal)</t>
+  </si>
+  <si>
+    <t>Diet Challenge</t>
+  </si>
+  <si>
+    <t>Workout Challenge</t>
+  </si>
+  <si>
+    <t>Step Challenge</t>
   </si>
   <si>
     <t>NO</t>
@@ -707,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -727,7 +743,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -747,18 +763,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9">
         <v>43938</v>
@@ -767,18 +783,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <v>43956</v>
@@ -787,18 +803,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="9">
         <v>43974</v>
@@ -807,18 +823,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3">
         <v>43992</v>
@@ -827,18 +843,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="9">
         <v>44010</v>
@@ -847,18 +863,18 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3">
         <v>44028</v>
@@ -867,18 +883,18 @@
         <v>44066.152777777781</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="9">
         <v>44046</v>
@@ -887,18 +903,18 @@
         <v>44039.805555555555</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="9">
         <v>44064</v>
@@ -907,7 +923,7 @@
         <v>44055.555555555555</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -953,16 +969,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>14</v>
@@ -1243,10 +1259,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3">
         <v>43975</v>
@@ -1257,10 +1273,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3">
         <v>43975</v>
@@ -1271,10 +1287,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>43975</v>
@@ -1285,10 +1301,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3">
         <v>43975</v>
@@ -1299,10 +1315,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>43975</v>
@@ -1313,10 +1329,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3">
         <v>43975</v>
@@ -1327,10 +1343,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3">
         <v>43975</v>
@@ -1379,13 +1395,13 @@
         <v>44066</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1393,13 +1409,13 @@
         <v>44066</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1410,10 +1426,10 @@
         <v>44064</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1424,7 +1440,7 @@
         <v>44044</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3">
         <v>44058</v>
@@ -1438,10 +1454,10 @@
         <v>44065</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1449,13 +1465,13 @@
         <v>44067</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1466,7 +1482,7 @@
         <v>44044</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3">
         <v>44063</v>
@@ -1480,10 +1496,10 @@
         <v>44048</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1494,10 +1510,10 @@
         <v>44063</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1505,13 +1521,13 @@
         <v>44063</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3">
         <v>44064</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF4A9E4-46E6-4127-A54A-C6E3D069C421}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1534,76 +1550,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2">
         <v>300000</v>
@@ -1611,35 +1627,112 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <v>600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE073E35-12B7-48E5-AE92-69543FEAD52F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44044</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44067.416666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44044</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44067.333333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44044</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44066.875</v>
       </c>
     </row>
   </sheetData>

--- a/Healthify Excel Sheet.xlsx
+++ b/Healthify Excel Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538408\Documents\GDP\Healthify-NWMSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC2BED8-C3D8-48A5-B818-D42F746D0D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42488BCA-C4CC-4EA7-9CE8-F7CC209267D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>Username</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>william</t>
+  </si>
+  <si>
+    <t>Calorie Burn Challenge</t>
+  </si>
+  <si>
+    <t>600000(Steps)</t>
   </si>
 </sst>
 </file>
@@ -382,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,6 +415,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1539,7 +1547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF4A9E4-46E6-4127-A54A-C6E3D069C421}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1654,8 +1664,8 @@
       <c r="B10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="2">
-        <v>600000</v>
+      <c r="C10" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1665,15 +1675,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE073E35-12B7-48E5-AE92-69543FEAD52F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
@@ -1735,7 +1745,22 @@
         <v>44066.875</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44044</v>
+      </c>
+      <c r="D5" s="11">
+        <v>44066.395833333336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>